--- a/blocklist.xlsx
+++ b/blocklist.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslx118\Desktop\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905" xr2:uid="{1BF4AF3B-B213-4183-BE42-E409186B46F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,19 +125,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -174,7 +174,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -485,593 +485,613 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF86EEDA-C7D4-4F8E-B70A-6B1887F60599}">
-  <dimension ref="A1:A115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>99508</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1312030</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1312690</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1314641</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1316428</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1317302</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1326139</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1346361</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1352031</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1352048</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1352088</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1362122</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1369338</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1370116</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1371814</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1380013</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1391189</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1521080</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1551012</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1558588</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1569982</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1569983</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1572204</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1577171</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1580162</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1581008</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1581132</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1583077</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1584680</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1591041</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1591852</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1760016</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1760029</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1801006</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1801012</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1801038</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1810137</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1812621</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1829431</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1830116</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1831142</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1850017</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1850029</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1850131</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1851115</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1851337</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1851474</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>185147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1851475</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>1360204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>1322018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>1851521</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>1851562</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>1851692</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>1851838</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>1851895</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>1851900</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>1851903</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>1851911</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>1851931</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1851935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>1851937</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>1851950</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1854892</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>1860017</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>1860019</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>1860054</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>1860068</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>1860071</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>1860117</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>1861019</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>1861085</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>1861097</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>1861101</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>1861103</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>1861220</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1861278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>1861282</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>1861821</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>1861823</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>1864072</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>1868337</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>1868950</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>1873264</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>1889203</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>1891062</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>1891069</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>1891073</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>1891093</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="1" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="1" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A116">
-    <sortCondition ref="A1"/>
+  <sortState ref="A1:A119">
+    <sortCondition ref="A103"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blocklist.xlsx
+++ b/blocklist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslx118\Desktop\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1A13592F-17C0-4340-946F-3A34C994BEA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>05108538</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,13 +120,33 @@
   </si>
   <si>
     <t>0105823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108648</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0874890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -485,14 +506,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -536,562 +560,682 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1312030</v>
+        <v>185147</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1312690</v>
+        <v>1312030</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1314641</v>
+        <v>1312690</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1316428</v>
+        <v>1312865</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1317302</v>
+        <v>1314641</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1326139</v>
+        <v>1316428</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1346361</v>
+        <v>1317302</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1352031</v>
+        <v>1322018</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1352048</v>
+        <v>1326139</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1352088</v>
+        <v>1346361</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1362122</v>
+        <v>1352031</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1369338</v>
+        <v>1352048</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1370116</v>
+        <v>1352088</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1371814</v>
+        <v>1352225</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1380013</v>
+        <v>1360204</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1391189</v>
+        <v>1362122</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1521080</v>
+        <v>1369108</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1551012</v>
+        <v>1369338</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1558588</v>
+        <v>1370116</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1569982</v>
+        <v>1371814</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1569983</v>
+        <v>1380013</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1572204</v>
+        <v>1391189</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1577171</v>
+        <v>1501125</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1580162</v>
+        <v>1501143</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1581008</v>
+        <v>1501154</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1581132</v>
+        <v>1521080</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1583077</v>
+        <v>1551012</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1584680</v>
+        <v>1558588</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1591041</v>
+        <v>1569982</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1591852</v>
+        <v>1569983</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1760016</v>
+        <v>1572204</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1760029</v>
+        <v>1577171</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1801006</v>
+        <v>1580162</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1801012</v>
+        <v>1581008</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1801038</v>
+        <v>1581132</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1810137</v>
+        <v>1583077</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1812621</v>
+        <v>1584680</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1829431</v>
+        <v>1591041</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1830116</v>
+        <v>1591852</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1831142</v>
+        <v>1754952</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1850017</v>
+        <v>1760016</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1850029</v>
+        <v>1760029</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1850131</v>
+        <v>1769262</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1851115</v>
+        <v>1801006</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1851337</v>
+        <v>1801012</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>185147</v>
+        <v>1801038</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1360204</v>
+        <v>1810137</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1322018</v>
+        <v>1812621</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1851521</v>
+        <v>1829431</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1851562</v>
+        <v>1830116</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1851692</v>
+        <v>1831142</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1851838</v>
+        <v>1850017</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1851895</v>
+        <v>1850029</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1851900</v>
+        <v>1850131</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1851903</v>
+        <v>1851115</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1851911</v>
+        <v>1851337</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1851931</v>
+        <v>1851521</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1851935</v>
+        <v>1851539</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1851937</v>
+        <v>1851562</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1851950</v>
+        <v>1851692</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1854892</v>
+        <v>1851838</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1860017</v>
+        <v>1851891</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1860019</v>
+        <v>1851895</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1860054</v>
+        <v>1851900</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1860068</v>
+        <v>1851903</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1860071</v>
+        <v>1851911</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1860117</v>
+        <v>1851931</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1861019</v>
+        <v>1851935</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1861085</v>
+        <v>1851937</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1861097</v>
+        <v>1851950</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1861101</v>
+        <v>1854892</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1861103</v>
+        <v>1860017</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1861220</v>
+        <v>1860019</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1861278</v>
+        <v>1860054</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1861282</v>
+        <v>1860068</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1861821</v>
+        <v>1860071</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1861823</v>
+        <v>1860117</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1864072</v>
+        <v>1861019</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1868337</v>
+        <v>1861085</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1868950</v>
+        <v>1861097</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1873264</v>
+        <v>1861101</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1889203</v>
+        <v>1861103</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1891062</v>
+        <v>1861202</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1891069</v>
+        <v>1861220</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1891073</v>
+        <v>1861278</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
+        <v>1861282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1861821</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1861823</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1864072</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1868337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1868950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1873264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1889203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1891062</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1891069</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1891073</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>1891093</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1371777</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1358156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1861332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1886334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1661998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1851208</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1821013</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1323558</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:A119">
-    <sortCondition ref="A103"/>
+  <sortState ref="A1:A131">
+    <sortCondition ref="A124"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blocklist.xlsx
+++ b/blocklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslx118\Desktop\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1A13592F-17C0-4340-946F-3A34C994BEA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{117DAB9D-ABFE-4F2B-B77B-C6C9A5146551}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>05108538</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,22 @@
   </si>
   <si>
     <t>0106200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106737</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108795</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A143"/>
+  <dimension ref="A1:A159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,642 +616,722 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1326139</v>
+        <v>1323558</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1346361</v>
+        <v>1323558</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1352031</v>
+        <v>1325213</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1352048</v>
+        <v>1326032</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1352088</v>
+        <v>1326139</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1352225</v>
+        <v>1346361</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1360204</v>
+        <v>1348868</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1362122</v>
+        <v>1352031</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1369108</v>
+        <v>1352048</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1369338</v>
+        <v>1352088</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1370116</v>
+        <v>1352225</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1371814</v>
+        <v>1358156</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1380013</v>
+        <v>1360204</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1391189</v>
+        <v>1362122</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1501125</v>
+        <v>1369108</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1501143</v>
+        <v>1369338</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1501154</v>
+        <v>1370116</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1521080</v>
+        <v>1371777</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1551012</v>
+        <v>1371814</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1558588</v>
+        <v>1371866</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1569982</v>
+        <v>1380013</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1569983</v>
+        <v>1391189</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1572204</v>
+        <v>1501125</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1577171</v>
+        <v>1501143</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1580162</v>
+        <v>1501154</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1581008</v>
+        <v>1521080</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1581132</v>
+        <v>1551012</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1583077</v>
+        <v>1558588</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1584680</v>
+        <v>1560124</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1591041</v>
+        <v>1569982</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1591852</v>
+        <v>1569983</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1754952</v>
+        <v>1572204</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1760016</v>
+        <v>1577171</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1760029</v>
+        <v>1580162</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1769262</v>
+        <v>1581008</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1801006</v>
+        <v>1581027</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1801012</v>
+        <v>1581132</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1801038</v>
+        <v>1583077</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1810137</v>
+        <v>1584680</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1812621</v>
+        <v>1591041</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1829431</v>
+        <v>1591852</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1830116</v>
+        <v>1661998</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1831142</v>
+        <v>1754952</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1850017</v>
+        <v>1760016</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1850029</v>
+        <v>1760029</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1850131</v>
+        <v>1769262</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1851115</v>
+        <v>1801006</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1851337</v>
+        <v>1801012</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1851521</v>
+        <v>1801027</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1851539</v>
+        <v>1801038</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1851562</v>
+        <v>1801041</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1851692</v>
+        <v>1810137</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1851838</v>
+        <v>1812621</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1851891</v>
+        <v>1821013</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1851895</v>
+        <v>1829431</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1851900</v>
+        <v>1830116</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1851903</v>
+        <v>1831100</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1851911</v>
+        <v>1831142</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1851931</v>
+        <v>1850017</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1851935</v>
+        <v>1850029</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1851937</v>
+        <v>1850131</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1851950</v>
+        <v>1851115</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1854892</v>
+        <v>1851208</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1860017</v>
+        <v>1851337</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1860019</v>
+        <v>1851521</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1860054</v>
+        <v>1851539</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1860068</v>
+        <v>1851556</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1860071</v>
+        <v>1851562</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1860117</v>
+        <v>1851692</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1861019</v>
+        <v>1851838</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1861085</v>
+        <v>1851891</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1861097</v>
+        <v>1851895</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1861101</v>
+        <v>1851900</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1861103</v>
+        <v>1851903</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1861202</v>
+        <v>1851911</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1861220</v>
+        <v>1851931</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1861278</v>
+        <v>1851935</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1861282</v>
+        <v>1851937</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1861821</v>
+        <v>1851950</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1861823</v>
+        <v>1854892</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1864072</v>
+        <v>1860017</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1868337</v>
+        <v>1860019</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1868950</v>
+        <v>1860054</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1873264</v>
+        <v>1860068</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1889203</v>
+        <v>1860071</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1891062</v>
+        <v>1860117</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1891069</v>
+        <v>1861019</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1891073</v>
+        <v>1861085</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
+        <v>1861097</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1861101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1861103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1861202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1861220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1861278</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1861282</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1861332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1861821</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1861823</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1863013</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1864072</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1868337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1868950</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1873264</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1886334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1889203</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1891062</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1891069</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1891073</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>1891093</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1371777</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1358156</v>
-      </c>
-    </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1861332</v>
+      <c r="A135" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1886334</v>
+      <c r="A136" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>1661998</v>
+      <c r="A138" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>1851208</v>
+      <c r="A141" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1821013</v>
+      <c r="A142" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1323558</v>
+      <c r="A143" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A131">
-    <sortCondition ref="A124"/>
+  <sortState ref="A1:A159">
+    <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blocklist.xlsx
+++ b/blocklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslx118\Desktop\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{117DAB9D-ABFE-4F2B-B77B-C6C9A5146551}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58E095F7-5CF2-411E-B1AA-E0851B238E65}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>05108538</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,54 @@
   </si>
   <si>
     <t>0108795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05715665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05918632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106737</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0246798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0799631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105377</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108752</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A159"/>
+  <dimension ref="A1:A191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -581,756 +629,916 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1312030</v>
+        <v>1311411</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1312690</v>
+        <v>1312030</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1312865</v>
+        <v>1312161</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1314641</v>
+        <v>1312690</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1316428</v>
+        <v>1312865</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1317302</v>
+        <v>1314115</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1322018</v>
+        <v>1314641</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1323558</v>
+        <v>1314687</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1323558</v>
+        <v>1316428</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1325213</v>
+        <v>1317302</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1326032</v>
+        <v>1322018</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1326139</v>
+        <v>1323558</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1346361</v>
+        <v>1323558</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1348868</v>
+        <v>1325213</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1352031</v>
+        <v>1326032</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1352048</v>
+        <v>1326139</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1352088</v>
+        <v>1346361</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1352225</v>
+        <v>1348868</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1358156</v>
+        <v>1352031</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1360204</v>
+        <v>1352048</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1362122</v>
+        <v>1352088</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1369108</v>
+        <v>1352225</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1369338</v>
+        <v>1358156</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1370116</v>
+        <v>1360204</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1371777</v>
+        <v>1362122</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1371814</v>
+        <v>1369108</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1371866</v>
+        <v>1369338</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1380013</v>
+        <v>1370116</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1391189</v>
+        <v>1371777</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1501125</v>
+        <v>1371783</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1501143</v>
+        <v>1371814</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1501154</v>
+        <v>1371866</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1521080</v>
+        <v>1380013</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1551012</v>
+        <v>1391082</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1558588</v>
+        <v>1391189</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1560124</v>
+        <v>1501125</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1569982</v>
+        <v>1501143</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1569983</v>
+        <v>1501153</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1572204</v>
+        <v>1501154</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1577171</v>
+        <v>1521080</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1580162</v>
+        <v>1551012</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1581008</v>
+        <v>1558588</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1581027</v>
+        <v>1560124</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1581132</v>
+        <v>1561217</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1583077</v>
+        <v>1569982</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1584680</v>
+        <v>1569983</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1591041</v>
+        <v>1572204</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1591852</v>
+        <v>1577171</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1661998</v>
+        <v>1580162</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1754952</v>
+        <v>1581008</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1760016</v>
+        <v>1581027</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1760029</v>
+        <v>1581132</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1769262</v>
+        <v>1583077</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1801006</v>
+        <v>1584680</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1801012</v>
+        <v>1591041</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1801027</v>
+        <v>1591852</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1801038</v>
+        <v>1661998</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1801041</v>
+        <v>1754952</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1810137</v>
+        <v>1760016</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1812621</v>
+        <v>1760029</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1821013</v>
+        <v>1769262</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1829431</v>
+        <v>1801006</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1830116</v>
+        <v>1801012</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1831100</v>
+        <v>1801027</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1831142</v>
+        <v>1801038</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1850017</v>
+        <v>1801041</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1850029</v>
+        <v>1810137</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1850131</v>
+        <v>1812621</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1851115</v>
+        <v>1821013</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1851208</v>
+        <v>1829431</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1851337</v>
+        <v>1830116</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1851521</v>
+        <v>1831100</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1851539</v>
+        <v>1831142</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1851556</v>
+        <v>1850017</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1851562</v>
+        <v>1850029</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1851692</v>
+        <v>1850131</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1851838</v>
+        <v>1851115</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1851891</v>
+        <v>1851208</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1851895</v>
+        <v>1851337</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1851900</v>
+        <v>1851521</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1851903</v>
+        <v>1851537</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1851911</v>
+        <v>1851539</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1851931</v>
+        <v>1851556</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1851935</v>
+        <v>1851562</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1851937</v>
+        <v>1851692</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1851950</v>
+        <v>1851838</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1854892</v>
+        <v>1851891</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1860017</v>
+        <v>1851895</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1860019</v>
+        <v>1851900</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1860054</v>
+        <v>1851903</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1860068</v>
+        <v>1851911</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1860071</v>
+        <v>1851931</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1860117</v>
+        <v>1851935</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1861019</v>
+        <v>1851937</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1861085</v>
+        <v>1851950</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1861097</v>
+        <v>1854010</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1861101</v>
+        <v>1854723</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1861103</v>
+        <v>1854892</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1861202</v>
+        <v>1856272</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1861220</v>
+        <v>1860017</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1861278</v>
+        <v>1860019</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1861282</v>
+        <v>1860054</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1861332</v>
+        <v>1860068</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1861821</v>
+        <v>1860071</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1861823</v>
+        <v>1860117</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1863013</v>
+        <v>1861019</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1864072</v>
+        <v>1861085</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1868337</v>
+        <v>1861097</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1868950</v>
+        <v>1861101</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1873264</v>
+        <v>1861103</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1886334</v>
+        <v>1861202</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1889203</v>
+        <v>1861220</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1891062</v>
+        <v>1861278</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1891069</v>
+        <v>1861282</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1891073</v>
+        <v>1861332</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
+        <v>1861821</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1861823</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1863013</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1864072</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1868121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1868337</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1868950</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1873264</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1880292</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1881114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1886334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1889203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1891024</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1891062</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1891069</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1891073</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1891075</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>1891093</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1312162</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1826677</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1326269</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:A159">
+  <sortState ref="A1:A187">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/blocklist.xlsx
+++ b/blocklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslx118\Desktop\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58E095F7-5CF2-411E-B1AA-E0851B238E65}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EEAC1FB-E5D4-459C-8A9E-415F9D8ECE6C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>05108538</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,10 @@
   </si>
   <si>
     <t>0108752</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108639</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A191"/>
+  <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -644,47 +648,47 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1312690</v>
+        <v>1312162</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1312865</v>
+        <v>1312690</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1314115</v>
+        <v>1312865</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1314641</v>
+        <v>1314115</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1314687</v>
+        <v>1314641</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1316428</v>
+        <v>1314687</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1317302</v>
+        <v>1316428</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1322018</v>
+        <v>1317302</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1323558</v>
+        <v>1322018</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -694,851 +698,896 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1325213</v>
+        <v>1323558</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1326032</v>
+        <v>1325213</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1326139</v>
+        <v>1326008</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1346361</v>
+        <v>1326032</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1348868</v>
+        <v>1326139</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1352031</v>
+        <v>1326269</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1352048</v>
+        <v>1346361</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1352088</v>
+        <v>1348868</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1352225</v>
+        <v>1352031</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1358156</v>
+        <v>1352048</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1360204</v>
+        <v>1352088</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1362122</v>
+        <v>1352225</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1369108</v>
+        <v>1358156</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1369338</v>
+        <v>1360204</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1370116</v>
+        <v>1362122</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1371777</v>
+        <v>1367131</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1371783</v>
+        <v>1369108</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1371814</v>
+        <v>1369338</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1371866</v>
+        <v>1370116</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1380013</v>
+        <v>1371777</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1391082</v>
+        <v>1371783</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1391189</v>
+        <v>1371814</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1501125</v>
+        <v>1371866</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1501143</v>
+        <v>1380013</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1501153</v>
+        <v>1391082</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1501154</v>
+        <v>1391189</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1521080</v>
+        <v>1501125</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1551012</v>
+        <v>1501143</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1558588</v>
+        <v>1501153</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1560124</v>
+        <v>1501154</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1561217</v>
+        <v>1521080</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1569982</v>
+        <v>1551012</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1569983</v>
+        <v>1558588</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1572204</v>
+        <v>1560124</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1577171</v>
+        <v>1561217</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1580162</v>
+        <v>1569982</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1581008</v>
+        <v>1569983</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1581027</v>
+        <v>1572204</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1581132</v>
+        <v>1577171</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1583077</v>
+        <v>1580162</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1584680</v>
+        <v>1581008</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1591041</v>
+        <v>1581027</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1591852</v>
+        <v>1581049</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1661998</v>
+        <v>1581132</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1754952</v>
+        <v>1583077</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1760016</v>
+        <v>1584680</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1760029</v>
+        <v>1591041</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1769262</v>
+        <v>1591852</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1801006</v>
+        <v>1661998</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1801012</v>
+        <v>1754952</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1801027</v>
+        <v>1760016</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1801038</v>
+        <v>1760029</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1801041</v>
+        <v>1769262</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1810137</v>
+        <v>1801006</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1812621</v>
+        <v>1801012</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1821013</v>
+        <v>1801027</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1829431</v>
+        <v>1801038</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1830116</v>
+        <v>1801041</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1831100</v>
+        <v>1810137</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1831142</v>
+        <v>1812621</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1850017</v>
+        <v>1821013</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1850029</v>
+        <v>1826677</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1850131</v>
+        <v>1829431</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1851115</v>
+        <v>1830116</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1851208</v>
+        <v>1831100</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1851337</v>
+        <v>1831142</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1851521</v>
+        <v>1850017</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1851537</v>
+        <v>1850029</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1851539</v>
+        <v>1850131</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1851556</v>
+        <v>1851115</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1851562</v>
+        <v>1851208</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1851692</v>
+        <v>1851337</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1851838</v>
+        <v>1851521</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1851891</v>
+        <v>1851537</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1851895</v>
+        <v>1851539</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1851900</v>
+        <v>1851548</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1851903</v>
+        <v>1851556</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1851911</v>
+        <v>1851562</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1851931</v>
+        <v>1851692</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1851935</v>
+        <v>1851838</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1851937</v>
+        <v>1851891</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1851950</v>
+        <v>1851895</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1854010</v>
+        <v>1851900</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1854723</v>
+        <v>1851903</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1854892</v>
+        <v>1851911</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1856272</v>
+        <v>1851931</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1860017</v>
+        <v>1851935</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1860019</v>
+        <v>1851937</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1860054</v>
+        <v>1851950</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1860068</v>
+        <v>1854010</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1860071</v>
+        <v>1854723</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1860117</v>
+        <v>1854892</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1861019</v>
+        <v>1856272</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1861085</v>
+        <v>1860017</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1861097</v>
+        <v>1860019</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1861101</v>
+        <v>1860054</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1861103</v>
+        <v>1860068</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1861202</v>
+        <v>1860071</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1861220</v>
+        <v>1860117</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1861278</v>
+        <v>1861019</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1861282</v>
+        <v>1861085</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1861332</v>
+        <v>1861097</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1861821</v>
+        <v>1861101</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1861823</v>
+        <v>1861103</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1863013</v>
+        <v>1861202</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1864072</v>
+        <v>1861220</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1868121</v>
+        <v>1861278</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1868337</v>
+        <v>1861282</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1868950</v>
+        <v>1861332</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1873264</v>
+        <v>1861821</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1880292</v>
+        <v>1861823</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1881114</v>
+        <v>1863013</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1886334</v>
+        <v>1864072</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1889203</v>
+        <v>1868121</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1891024</v>
+        <v>1868337</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1891062</v>
+        <v>1868950</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1891069</v>
+        <v>1873264</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1891073</v>
+        <v>1880292</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1891075</v>
+        <v>1881114</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
+        <v>1886334</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1889203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1891024</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1891062</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1891069</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1891073</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1891075</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>1891093</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1312162</v>
+      <c r="A189" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>1826677</v>
+      <c r="A190" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1326269</v>
+      <c r="A191" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1850095</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1718777</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1381110</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1553278</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A187">
+  <sortState ref="A1:A196">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/blocklist.xlsx
+++ b/blocklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslx118\Desktop\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EEAC1FB-E5D4-459C-8A9E-415F9D8ECE6C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6D4E3-76F0-4EDC-9C54-03E4EB460584}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>05108538</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,78 @@
   </si>
   <si>
     <t>0108639</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03712239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05168399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03715629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106734</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0553261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05166703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05168389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03715662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05108199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0293804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05718172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05718530</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,11 +326,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A200"/>
+  <dimension ref="A1:A233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -588,112 +663,112 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>99508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>185147</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1311411</v>
+        <v>185147</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1312030</v>
+        <v>1311411</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1312161</v>
+        <v>1312030</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1312162</v>
+        <v>1312161</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1312690</v>
+        <v>1312162</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1312865</v>
+        <v>1312690</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1314115</v>
+        <v>1312865</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1314641</v>
+        <v>1314115</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1314687</v>
+        <v>1314641</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1316428</v>
+        <v>1314687</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1317302</v>
+        <v>1316428</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1322018</v>
+        <v>1317302</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1323558</v>
+        <v>1322018</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -703,891 +778,1056 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1325213</v>
+        <v>1323558</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1326008</v>
+        <v>1325213</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1326032</v>
+        <v>1326008</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1326139</v>
+        <v>1326032</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1326269</v>
+        <v>1326139</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1346361</v>
+        <v>1326269</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1348868</v>
+        <v>1326288</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1352031</v>
+        <v>1346361</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1352048</v>
+        <v>1348868</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1352088</v>
+        <v>1352031</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1352225</v>
+        <v>1352048</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1358156</v>
+        <v>1352088</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1360204</v>
+        <v>1352225</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1362122</v>
+        <v>1355247</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1367131</v>
+        <v>1358156</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1369108</v>
+        <v>1360204</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1369338</v>
+        <v>1362122</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1370116</v>
+        <v>1367131</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1371777</v>
+        <v>1369108</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1371783</v>
+        <v>1369338</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1371814</v>
+        <v>1370116</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1371866</v>
+        <v>1371777</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1380013</v>
+        <v>1371783</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1391082</v>
+        <v>1371814</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1391189</v>
+        <v>1371866</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1501125</v>
+        <v>1380013</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1501143</v>
+        <v>1381110</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1501153</v>
+        <v>1391082</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1501154</v>
+        <v>1391189</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1521080</v>
+        <v>1399194</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1551012</v>
+        <v>1501125</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1558588</v>
+        <v>1501143</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1560124</v>
+        <v>1501153</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1561217</v>
+        <v>1501154</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1569982</v>
+        <v>1521080</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1569983</v>
+        <v>1551012</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1572204</v>
+        <v>1553278</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1577171</v>
+        <v>1558588</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1580162</v>
+        <v>1560124</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1581008</v>
+        <v>1561217</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1581027</v>
+        <v>1569982</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1581049</v>
+        <v>1569983</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1581132</v>
+        <v>1572204</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1583077</v>
+        <v>1577171</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1584680</v>
+        <v>1580162</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1591041</v>
+        <v>1581008</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1591852</v>
+        <v>1581027</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1661998</v>
+        <v>1581049</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1754952</v>
+        <v>1581132</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1760016</v>
+        <v>1583077</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1760029</v>
+        <v>1584680</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1769262</v>
+        <v>1591041</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1801006</v>
+        <v>1591852</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1801012</v>
+        <v>1661998</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1801027</v>
+        <v>1713227</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1801038</v>
+        <v>1718777</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1801041</v>
+        <v>1754952</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1810137</v>
+        <v>1760016</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1812621</v>
+        <v>1760029</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1821013</v>
+      <c r="A83" s="2">
+        <v>1761113</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1826677</v>
+        <v>1761142</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1829431</v>
+        <v>1769262</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1830116</v>
+        <v>1801006</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1831100</v>
+        <v>1801012</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1831142</v>
+        <v>1801027</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1850017</v>
+        <v>1801038</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1850029</v>
+        <v>1801041</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1850131</v>
+        <v>1810137</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1851115</v>
+        <v>1812621</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1851208</v>
+        <v>1821013</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1851337</v>
+        <v>1826677</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1851521</v>
+        <v>1829431</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1851537</v>
+        <v>1830116</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1851539</v>
+        <v>1831100</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1851548</v>
+        <v>1831142</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1851556</v>
+        <v>1833592</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1851562</v>
+        <v>1850017</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1851692</v>
+        <v>1850029</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>1851838</v>
+      <c r="A102" s="2">
+        <v>1850037</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1851891</v>
+        <v>1850095</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1851895</v>
+        <v>1850131</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1851900</v>
+        <v>1851115</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1851903</v>
+        <v>1851208</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1851911</v>
+        <v>1851337</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1851931</v>
+        <v>1851521</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1851935</v>
+        <v>1851537</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1851937</v>
+        <v>1851539</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1851950</v>
+        <v>1851548</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1854010</v>
+        <v>1851556</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1854723</v>
+        <v>1851562</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1854892</v>
+        <v>1851692</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1856272</v>
+        <v>1851838</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1860017</v>
+        <v>1851891</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1860019</v>
+        <v>1851895</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1860054</v>
+        <v>1851900</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1860068</v>
+        <v>1851903</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1860071</v>
+        <v>1851911</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1860117</v>
+        <v>1851931</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1861019</v>
+        <v>1851935</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1861085</v>
+        <v>1851937</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1861097</v>
+        <v>1851950</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1861101</v>
+        <v>1852633</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1861103</v>
+        <v>1854010</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1861202</v>
+        <v>1854723</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1861220</v>
+        <v>1854892</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1861278</v>
+        <v>1856272</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1861282</v>
+        <v>1860017</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1861332</v>
+        <v>1860019</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1861821</v>
+        <v>1860054</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1861823</v>
+        <v>1860068</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1863013</v>
+        <v>1860071</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1864072</v>
+        <v>1860117</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1868121</v>
+        <v>1860839</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1868337</v>
+        <v>1861019</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1868950</v>
+        <v>1861085</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1873264</v>
+        <v>1861097</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1880292</v>
+        <v>1861101</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1881114</v>
+        <v>1861103</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1886334</v>
+        <v>1861202</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1889203</v>
+        <v>1861220</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1891024</v>
+        <v>1861278</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1891062</v>
+        <v>1861282</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1891069</v>
+        <v>1861332</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1891073</v>
+        <v>1861821</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1891075</v>
+        <v>1861823</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
+        <v>1863013</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1864072</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1868121</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1868337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1868950</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1873264</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1880292</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1881114</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1883239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1883939</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1886334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1889203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1891024</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>1891025</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1891062</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1891069</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1891073</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1891075</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>1891093</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1850095</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>1718777</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1381110</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>1553278</v>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A196">
+  <sortState ref="A1:A232">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/blocklist.xlsx
+++ b/blocklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslx118\Desktop\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6D4E3-76F0-4EDC-9C54-03E4EB460584}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DA067A-EF76-4960-BF12-2312B430B179}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>05108538</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>05718530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0535620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0457891</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03715855</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A233"/>
+  <dimension ref="A1:A247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1826,6 +1838,76 @@
         <v>63</v>
       </c>
     </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1316718</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1514307</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1580168</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1510157</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1780298</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1891057</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1381022</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1719777</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1554925</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1327751</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1851510</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:A232">
     <sortCondition ref="A1"/>

--- a/blocklist.xlsx
+++ b/blocklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslx118\Desktop\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DA067A-EF76-4960-BF12-2312B430B179}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAAAAFA-3BAC-4AC9-8F63-06DC9F04372E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>05108538</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,54 @@
   </si>
   <si>
     <t>03715855</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03716339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0288663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05198558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0535564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05168081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05916200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07556186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0818792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>047448</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A247"/>
+  <dimension ref="A1:A268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="C246" sqref="C246"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -775,17 +823,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1317302</v>
+        <v>1316718</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1322018</v>
+        <v>1317302</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1323558</v>
+        <v>1322018</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -795,1121 +843,1226 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1325213</v>
+        <v>1323558</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1326008</v>
+        <v>1325213</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1326032</v>
+        <v>1326008</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1326139</v>
+        <v>1326032</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1326269</v>
+        <v>1326139</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1326288</v>
+        <v>1326269</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1346361</v>
+        <v>1326288</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1348868</v>
+        <v>1327751</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1352031</v>
+        <v>1346361</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1352048</v>
+        <v>1348868</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1352088</v>
+        <v>1352031</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1352225</v>
+        <v>1352048</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1355247</v>
+        <v>1352088</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1358156</v>
+        <v>1352225</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1360204</v>
+        <v>1355247</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1362122</v>
+        <v>1358156</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1367131</v>
+        <v>1360204</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1369108</v>
+        <v>1362122</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1369338</v>
+        <v>1367131</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1370116</v>
+        <v>1369108</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1371777</v>
+        <v>1369338</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1371783</v>
+        <v>1370116</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1371814</v>
+        <v>1371777</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1371866</v>
+        <v>1371783</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1380013</v>
+        <v>1371814</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1381110</v>
+        <v>1371866</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1391082</v>
+        <v>1380013</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1391189</v>
+        <v>1381022</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1399194</v>
+        <v>1381110</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1501125</v>
+        <v>1391082</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1501143</v>
+        <v>1391189</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1501153</v>
+        <v>1399194</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1501154</v>
+        <v>1501125</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1521080</v>
+        <v>1501143</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1551012</v>
+        <v>1501153</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1553278</v>
+        <v>1501154</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1558588</v>
+        <v>1510157</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1560124</v>
+        <v>1514307</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1561217</v>
+        <v>1521080</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1569982</v>
+        <v>1551012</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1569983</v>
+        <v>1553278</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1572204</v>
+        <v>1554925</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1577171</v>
+        <v>1558588</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1580162</v>
+        <v>1560124</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1581008</v>
+        <v>1561217</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1581027</v>
+        <v>1569982</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1581049</v>
+        <v>1569983</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1581132</v>
+        <v>1572204</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1583077</v>
+        <v>1577171</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1584680</v>
+        <v>1580162</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1591041</v>
+        <v>1580168</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1591852</v>
+        <v>1581008</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1661998</v>
+        <v>1581027</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1713227</v>
+        <v>1581049</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1718777</v>
+        <v>1581132</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1754952</v>
+        <v>1583077</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1760016</v>
+        <v>1584680</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1760029</v>
+        <v>1591041</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>1761113</v>
+      <c r="A83">
+        <v>1591852</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1761142</v>
+        <v>1661998</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1769262</v>
+        <v>1713227</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1801006</v>
+        <v>1718777</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1801012</v>
+        <v>1719777</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1801027</v>
+        <v>1754952</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1801038</v>
+        <v>1760016</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1801041</v>
+        <v>1760029</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1810137</v>
+      <c r="A91" s="2">
+        <v>1761113</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1812621</v>
+        <v>1761142</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1821013</v>
+        <v>1769262</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1826677</v>
+        <v>1780298</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1829431</v>
+        <v>1801006</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1830116</v>
+        <v>1801012</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1831100</v>
+        <v>1801027</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1831142</v>
+        <v>1801038</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1833592</v>
+        <v>1801041</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1850017</v>
+        <v>1810137</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1850029</v>
+        <v>1812621</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>1850037</v>
+      <c r="A102">
+        <v>1821013</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1850095</v>
+        <v>1826677</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1850131</v>
+        <v>1829431</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1851115</v>
+        <v>1830116</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1851208</v>
+        <v>1831100</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1851337</v>
+        <v>1831142</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1851521</v>
+        <v>1833592</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1851537</v>
+        <v>1850017</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1851539</v>
+        <v>1850029</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>1851548</v>
+      <c r="A111" s="2">
+        <v>1850037</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1851556</v>
+        <v>1850095</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1851562</v>
+        <v>1850131</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1851692</v>
+        <v>1851115</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1851838</v>
+        <v>1851208</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1851891</v>
+        <v>1851337</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1851895</v>
+        <v>1851510</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1851900</v>
+        <v>1851521</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1851903</v>
+        <v>1851537</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1851911</v>
+        <v>1851539</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1851931</v>
+        <v>1851548</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1851935</v>
+        <v>1851556</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1851937</v>
+        <v>1851562</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1851950</v>
+        <v>1851692</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1852633</v>
+        <v>1851838</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1854010</v>
+        <v>1851891</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1854723</v>
+        <v>1851895</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1854892</v>
+        <v>1851900</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1856272</v>
+        <v>1851903</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1860017</v>
+        <v>1851911</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1860019</v>
+        <v>1851931</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1860054</v>
+        <v>1851935</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1860068</v>
+        <v>1851937</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1860071</v>
+        <v>1851950</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1860117</v>
+        <v>1852633</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1860839</v>
+        <v>1854010</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1861019</v>
+        <v>1854723</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1861085</v>
+        <v>1854892</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1861097</v>
+        <v>1856272</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1861101</v>
+        <v>1860017</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1861103</v>
+        <v>1860019</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1861202</v>
+        <v>1860054</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1861220</v>
+        <v>1860068</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1861278</v>
+        <v>1860071</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1861282</v>
+        <v>1860117</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1861332</v>
+        <v>1860839</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1861821</v>
+        <v>1861019</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1861823</v>
+        <v>1861085</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1863013</v>
+        <v>1861097</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1864072</v>
+        <v>1861101</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1868121</v>
+        <v>1861103</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1868337</v>
+        <v>1861202</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1868950</v>
+        <v>1861220</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1873264</v>
+        <v>1861278</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1880292</v>
+        <v>1861282</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1881114</v>
+        <v>1861332</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1883239</v>
+        <v>1861821</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1883939</v>
+        <v>1861823</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1886334</v>
+        <v>1863013</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1889203</v>
+        <v>1864072</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1891024</v>
+        <v>1868121</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>1891025</v>
+      <c r="A162">
+        <v>1868337</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1891062</v>
+        <v>1868950</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1891069</v>
+        <v>1873264</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1891073</v>
+        <v>1880292</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1891075</v>
+        <v>1881114</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
+        <v>1883239</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1883939</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1886334</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1889203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1891024</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>1891025</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1891057</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1891062</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1891069</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1891073</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1891075</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>1891093</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>27</v>
+      <c r="A231" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>1316718</v>
+      <c r="A236" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1514307</v>
+      <c r="A237" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1580168</v>
+      <c r="A238" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>1510157</v>
+      <c r="A239" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>1780298</v>
+      <c r="A240" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>1891057</v>
+      <c r="A241" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>1381022</v>
+      <c r="A242" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>1719777</v>
+      <c r="A243" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>1554925</v>
+      <c r="A244" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>1327751</v>
+      <c r="A245" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>1851510</v>
+      <c r="A247" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1361101</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1381076</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1861009</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1316156</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1761100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1718105</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1343999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1983317</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1784466</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A232">
+  <sortState ref="A1:A250">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/blocklist.xlsx
+++ b/blocklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslx118\Desktop\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAAAAFA-3BAC-4AC9-8F63-06DC9F04372E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AFF7B3-0C08-48DB-94CB-EFBB1C9BFE22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="E267" sqref="E267"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -818,27 +818,27 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1316428</v>
+        <v>1316156</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1316718</v>
+        <v>1316428</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1317302</v>
+        <v>1316718</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1322018</v>
+        <v>1317302</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1323558</v>
+        <v>1322018</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -848,1202 +848,1202 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1325213</v>
+        <v>1323558</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1326008</v>
+        <v>1325213</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1326032</v>
+        <v>1326008</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1326139</v>
+        <v>1326032</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1326269</v>
+        <v>1326139</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1326288</v>
+        <v>1326269</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1327751</v>
+        <v>1326288</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1346361</v>
+        <v>1327751</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1348868</v>
+        <v>1343999</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1352031</v>
+        <v>1346361</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1352048</v>
+        <v>1348868</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1352088</v>
+        <v>1352031</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1352225</v>
+        <v>1352048</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1355247</v>
+        <v>1352088</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1358156</v>
+        <v>1352225</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1360204</v>
+        <v>1355247</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1362122</v>
+        <v>1358156</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1367131</v>
+        <v>1360204</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1369108</v>
+        <v>1361101</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1369338</v>
+        <v>1362122</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1370116</v>
+        <v>1367131</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1371777</v>
+        <v>1369108</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1371783</v>
+        <v>1369338</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1371814</v>
+        <v>1370116</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1371866</v>
+        <v>1371777</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1380013</v>
+        <v>1371783</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1381022</v>
+        <v>1371814</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1381110</v>
+        <v>1371866</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1391082</v>
+        <v>1380013</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1391189</v>
+        <v>1381022</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1399194</v>
+        <v>1381076</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1501125</v>
+        <v>1381110</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1501143</v>
+        <v>1391082</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1501153</v>
+        <v>1391189</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1501154</v>
+        <v>1399194</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1510157</v>
+        <v>1501125</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1514307</v>
+        <v>1501143</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1521080</v>
+        <v>1501153</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1551012</v>
+        <v>1501154</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1553278</v>
+        <v>1510157</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1554925</v>
+        <v>1514307</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1558588</v>
+        <v>1521080</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1560124</v>
+        <v>1551012</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1561217</v>
+        <v>1553278</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1569982</v>
+        <v>1554925</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1569983</v>
+        <v>1558588</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1572204</v>
+        <v>1560124</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1577171</v>
+        <v>1561217</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1580162</v>
+        <v>1569982</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1580168</v>
+        <v>1569983</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1581008</v>
+        <v>1572204</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1581027</v>
+        <v>1577171</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1581049</v>
+        <v>1580162</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1581132</v>
+        <v>1580168</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1583077</v>
+        <v>1581008</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1584680</v>
+        <v>1581027</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1591041</v>
+        <v>1581049</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1591852</v>
+        <v>1581132</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1661998</v>
+        <v>1583077</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1713227</v>
+        <v>1584680</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1718777</v>
+        <v>1591041</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1719777</v>
+        <v>1591852</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1754952</v>
+        <v>1661998</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1760016</v>
+        <v>1713227</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1760029</v>
+        <v>1718105</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>1761113</v>
+      <c r="A91">
+        <v>1718777</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1761142</v>
+        <v>1719777</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1769262</v>
+        <v>1754952</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1780298</v>
+        <v>1760016</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1801006</v>
+        <v>1760029</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1801012</v>
+        <v>1761100</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1801027</v>
+      <c r="A97" s="2">
+        <v>1761113</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1801038</v>
+        <v>1761142</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1801041</v>
+        <v>1769262</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1810137</v>
+        <v>1780298</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1812621</v>
+        <v>1784466</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1821013</v>
+        <v>1801006</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1826677</v>
+        <v>1801012</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1829431</v>
+        <v>1801027</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1830116</v>
+        <v>1801038</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1831100</v>
+        <v>1801041</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1831142</v>
+        <v>1810137</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1833592</v>
+        <v>1812621</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1850017</v>
+        <v>1821013</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1850029</v>
+        <v>1826677</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>1850037</v>
+      <c r="A111">
+        <v>1829431</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1850095</v>
+        <v>1830116</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1850131</v>
+        <v>1831100</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1851115</v>
+        <v>1831142</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1851208</v>
+        <v>1833592</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1851337</v>
+        <v>1850017</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1851510</v>
+        <v>1850029</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1851521</v>
+      <c r="A118" s="2">
+        <v>1850037</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1851537</v>
+        <v>1850095</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1851539</v>
+        <v>1850131</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1851548</v>
+        <v>1851115</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1851556</v>
+        <v>1851208</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1851562</v>
+        <v>1851337</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1851692</v>
+        <v>1851510</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1851838</v>
+        <v>1851521</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1851891</v>
+        <v>1851537</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1851895</v>
+        <v>1851539</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1851900</v>
+        <v>1851548</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1851903</v>
+        <v>1851556</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1851911</v>
+        <v>1851562</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1851931</v>
+        <v>1851692</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1851935</v>
+        <v>1851838</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1851937</v>
+        <v>1851891</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1851950</v>
+        <v>1851895</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1852633</v>
+        <v>1851900</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1854010</v>
+        <v>1851903</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1854723</v>
+        <v>1851911</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1854892</v>
+        <v>1851931</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1856272</v>
+        <v>1851935</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1860017</v>
+        <v>1851937</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1860019</v>
+        <v>1851950</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1860054</v>
+        <v>1852633</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1860068</v>
+        <v>1854010</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1860071</v>
+        <v>1854723</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1860117</v>
+        <v>1854892</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1860839</v>
+        <v>1856272</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1861019</v>
+        <v>1860017</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1861085</v>
+        <v>1860019</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1861097</v>
+        <v>1860054</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1861101</v>
+        <v>1860068</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1861103</v>
+        <v>1860071</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1861202</v>
+        <v>1860117</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1861220</v>
+        <v>1860839</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1861278</v>
+        <v>1861009</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1861282</v>
+        <v>1861019</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1861332</v>
+        <v>1861085</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1861821</v>
+        <v>1861097</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1861823</v>
+        <v>1861101</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1863013</v>
+        <v>1861103</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1864072</v>
+        <v>1861202</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1868121</v>
+        <v>1861220</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1868337</v>
+        <v>1861278</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1868950</v>
+        <v>1861282</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1873264</v>
+        <v>1861332</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1880292</v>
+        <v>1861821</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1881114</v>
+        <v>1861823</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1883239</v>
+        <v>1863013</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1883939</v>
+        <v>1864072</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1886334</v>
+        <v>1868121</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1889203</v>
+        <v>1868337</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1891024</v>
+        <v>1868950</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>1891025</v>
+      <c r="A172">
+        <v>1873264</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1891057</v>
+        <v>1880292</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1891062</v>
+        <v>1881114</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1891069</v>
+        <v>1883239</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1891073</v>
+        <v>1883939</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1891075</v>
+        <v>1886334</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
+        <v>1889203</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1891024</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>1891025</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1891057</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1891062</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1891069</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1891073</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1891075</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>1891093</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>54</v>
+      <c r="A187">
+        <v>1983317</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>27</v>
+      <c r="A249" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>1361101</v>
+      <c r="A251" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1381076</v>
+      <c r="A252" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>1861009</v>
+      <c r="A253" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>1316156</v>
+      <c r="A254" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1761100</v>
+      <c r="A255" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>1718105</v>
+      <c r="A262" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>1343999</v>
+      <c r="A263" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>1983317</v>
+      <c r="A265" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
@@ -2052,17 +2052,17 @@
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>1784466</v>
+      <c r="A267" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A250">
+  <sortState ref="A1:A268">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/blocklist.xlsx
+++ b/blocklist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslx118\Desktop\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AFF7B3-0C08-48DB-94CB-EFBB1C9BFE22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D88CCE8-C1B2-4F0B-91A6-54856488ED52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>05108538</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05715665</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>05918632</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,18 +267,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05718172</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0108644</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05718530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0535620</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,6 +328,22 @@
   </si>
   <si>
     <t>047448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05913825</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,10 +714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A268"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:A277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -743,1182 +750,1182 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>400</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>99508</v>
+      <c r="A9">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>185147</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1311411</v>
+      <c r="A11" s="1">
+        <v>99508</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1312030</v>
+        <v>185147</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1312161</v>
+        <v>1311411</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1312162</v>
+        <v>1312030</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1312690</v>
+        <v>1312132</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1312865</v>
+        <v>1312137</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1314115</v>
+        <v>1312161</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1314641</v>
+        <v>1312162</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1314687</v>
+        <v>1312690</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1316156</v>
+        <v>1312865</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1316428</v>
+        <v>1314115</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1316718</v>
+        <v>1314641</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1317302</v>
+        <v>1314687</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1322018</v>
+        <v>1316156</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1323558</v>
+        <v>1316428</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1323558</v>
+        <v>1316718</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1325213</v>
+        <v>1317302</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1326008</v>
+        <v>1322018</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1326032</v>
+        <v>1323558</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1326139</v>
+        <v>1323558</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1326269</v>
+        <v>1324020</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1326288</v>
+        <v>1325213</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1327751</v>
+        <v>1326008</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1343999</v>
+        <v>1326032</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1346361</v>
+        <v>1326139</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1348868</v>
+        <v>1326269</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1352031</v>
+        <v>1326288</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1352048</v>
+        <v>1327751</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1352088</v>
+        <v>1340036</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1352225</v>
+        <v>1343999</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1355247</v>
+        <v>1346361</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1358156</v>
+        <v>1348868</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1360204</v>
+        <v>1352031</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1361101</v>
+        <v>1352048</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1362122</v>
+        <v>1352088</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1367131</v>
+        <v>1352225</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1369108</v>
+        <v>1355247</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1369338</v>
+        <v>1358156</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1370116</v>
+        <v>1360204</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1371777</v>
+        <v>1361101</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1371783</v>
+        <v>1362122</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1371814</v>
+        <v>1367131</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1371866</v>
+        <v>1369108</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1380013</v>
+        <v>1369338</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1381022</v>
+        <v>1370116</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1381076</v>
+        <v>1371688</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1381110</v>
+        <v>1371777</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1391082</v>
+        <v>1371783</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1391189</v>
+        <v>1371794</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1399194</v>
+        <v>1371814</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1501125</v>
+        <v>1371866</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1501143</v>
+        <v>1380013</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1501153</v>
+        <v>1381022</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1501154</v>
+        <v>1381076</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1510157</v>
+        <v>1381110</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1514307</v>
+        <v>1391082</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1521080</v>
+        <v>1391189</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1551012</v>
+        <v>1399194</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1553278</v>
+        <v>1501125</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1554925</v>
+        <v>1501143</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1558588</v>
+        <v>1501153</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1560124</v>
+        <v>1501154</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1561217</v>
+        <v>1510157</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1569982</v>
+        <v>1514307</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1569983</v>
+        <v>1521080</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1572204</v>
+        <v>1523074</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1577171</v>
+        <v>1550103</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1580162</v>
+        <v>1551012</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1580168</v>
+        <v>1553278</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1581008</v>
+        <v>1554925</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1581027</v>
+        <v>1558588</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1581049</v>
+        <v>1560124</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1581132</v>
+        <v>1561217</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1583077</v>
+        <v>1569982</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1584680</v>
+        <v>1569983</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1591041</v>
+        <v>1572204</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1591852</v>
+        <v>1577171</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1661998</v>
+        <v>1580162</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1713227</v>
+        <v>1580168</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1718105</v>
+        <v>1581008</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1718777</v>
+        <v>1581027</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1719777</v>
+        <v>1581049</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1754952</v>
+        <v>1581132</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1760016</v>
+        <v>1583077</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1760029</v>
+        <v>1584680</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1761100</v>
+        <v>1591041</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>1761113</v>
+      <c r="A97">
+        <v>1591852</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1761142</v>
+        <v>1661998</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1769262</v>
+        <v>1754952</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1780298</v>
+        <v>1760016</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1784466</v>
+        <v>1760029</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1801006</v>
+        <v>1761100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1801012</v>
+      <c r="A103" s="2">
+        <v>1761113</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1801027</v>
+        <v>1761142</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1801038</v>
+        <v>1769262</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1801041</v>
+        <v>1780298</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1810137</v>
+        <v>1780348</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1812621</v>
+        <v>1784466</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1821013</v>
+        <v>1801006</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1826677</v>
+        <v>1801012</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1829431</v>
+        <v>1801027</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1830116</v>
+        <v>1801038</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1831100</v>
+        <v>1801041</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1831142</v>
+        <v>1810137</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1833592</v>
+        <v>1812621</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1850017</v>
+        <v>1821013</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1850029</v>
+        <v>1826677</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>1850037</v>
+      <c r="A118">
+        <v>1829431</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1850095</v>
+        <v>1830116</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1850131</v>
+        <v>1831100</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1851115</v>
+        <v>1831142</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1851208</v>
+        <v>1833592</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1851337</v>
+        <v>1850017</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1851510</v>
+        <v>1850029</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1851521</v>
+      <c r="A125" s="2">
+        <v>1850037</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1851537</v>
+        <v>1850095</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1851539</v>
+        <v>1850131</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1851548</v>
+        <v>1851115</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1851556</v>
+        <v>1851208</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1851562</v>
+        <v>1851337</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1851692</v>
+        <v>1851510</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1851838</v>
+        <v>1851521</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1851891</v>
+        <v>1851537</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1851895</v>
+        <v>1851539</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1851900</v>
+        <v>1851548</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1851903</v>
+        <v>1851556</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1851911</v>
+        <v>1851562</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1851931</v>
+        <v>1851692</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1851935</v>
+        <v>1851838</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1851937</v>
+        <v>1851891</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1851950</v>
+        <v>1851895</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1852633</v>
+        <v>1851900</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1854010</v>
+        <v>1851903</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1854723</v>
+        <v>1851911</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1854892</v>
+        <v>1851931</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1856272</v>
+        <v>1851935</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1860017</v>
+        <v>1851937</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1860019</v>
+        <v>1851950</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1860054</v>
+        <v>1852633</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1860068</v>
+        <v>1854010</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1860071</v>
+        <v>1854723</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1860117</v>
+        <v>1854892</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1860839</v>
+        <v>1856272</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1861009</v>
+        <v>1860017</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1861019</v>
+        <v>1860019</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1861085</v>
+        <v>1860054</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1861097</v>
+        <v>1860068</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1861101</v>
+        <v>1860071</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1861103</v>
+        <v>1860117</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1861202</v>
+        <v>1860839</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1861220</v>
+        <v>1861009</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1861278</v>
+        <v>1861019</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1861282</v>
+        <v>1861085</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1861332</v>
+        <v>1861097</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1861821</v>
+        <v>1861101</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1861823</v>
+        <v>1861103</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1863013</v>
+        <v>1861202</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1864072</v>
+        <v>1861220</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1868121</v>
+        <v>1861278</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1868337</v>
+        <v>1861282</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1868950</v>
+        <v>1861332</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1873264</v>
+        <v>1861821</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1880292</v>
+        <v>1861823</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1881114</v>
+        <v>1863013</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1883239</v>
+        <v>1864072</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1883939</v>
+        <v>1868121</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1886334</v>
+        <v>1868337</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1889203</v>
+        <v>1868950</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1891024</v>
+        <v>1873264</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>1891025</v>
+      <c r="A180">
+        <v>1880292</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1891057</v>
+        <v>1881114</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1891062</v>
+        <v>1883239</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1891069</v>
+        <v>1883939</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1891073</v>
+        <v>1886334</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1891075</v>
+        <v>1889203</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
+        <v>1891024</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>1891025</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1891057</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1891062</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1891069</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1891073</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1891075</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>1891093</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1899480</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>1983317</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
@@ -1928,144 +1935,190 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>27</v>
+      <c r="A267" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:A268">
+  <sortState ref="A1:A277">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="20" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>